--- a/minimal-example/ig/StructureDefinition-ActorChild2.xlsx
+++ b/minimal-example/ig/StructureDefinition-ActorChild2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:36:08+00:00</t>
+    <t>2025-05-06T08:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,6 +273,19 @@
   </si>
   <si>
     <t>author/assignedAuthor/id@extension</t>
+  </si>
+  <si>
+    <t>ActorChild2.XCN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN10</t>
   </si>
   <si>
     <t>ActorChild2.XCN3</t>
@@ -593,7 +606,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -993,7 +1006,7 @@
         <v>88</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1044,7 +1057,7 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
@@ -1059,6 +1072,109 @@
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/minimal-example/ig/StructureDefinition-ActorChild2.xlsx
+++ b/minimal-example/ig/StructureDefinition-ActorChild2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T08:04:12+00:00</t>
+    <t>2025-05-06T12:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
   <si>
     <t>ActorParent.XCN10</t>
@@ -1018,7 +1021,7 @@
         <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="T4" t="s" s="2">
         <v>73</v>
@@ -1057,7 +1060,7 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
@@ -1077,10 +1080,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1103,13 +1106,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1160,7 +1163,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>

--- a/minimal-example/ig/StructureDefinition-ActorChild2.xlsx
+++ b/minimal-example/ig/StructureDefinition-ActorChild2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T12:03:39+00:00</t>
+    <t>2025-05-06T12:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,20 +259,47 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2
 </t>
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
   </si>
   <si>
-    <t>801234567890</t>
+    <t>example-xcn1-actorchild2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>ActorParent.XCN1[x]</t>
   </si>
   <si>
     <t>author/assignedAuthor/id@extension</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>ActorChild2.XCN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN3</t>
   </si>
   <si>
     <t>ActorChild2.XCN10</t>
@@ -285,26 +312,7 @@
     <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>ActorParent.XCN10</t>
-  </si>
-  <si>
-    <t>ActorChild2.XCN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Prénom usuel de la personne</t>
-  </si>
-  <si>
-    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
-  </si>
-  <si>
-    <t>ActorParent.XCN3</t>
   </si>
 </sst>
 </file>
@@ -609,7 +617,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -628,7 +636,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.94140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="120.96484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -637,7 +645,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="12.89453125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="21.39453125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -945,19 +953,17 @@
         <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC3" s="2"/>
       <c r="AD3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
@@ -972,15 +978,15 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1003,13 +1009,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1060,7 +1066,7 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
@@ -1075,15 +1081,15 @@
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1106,13 +1112,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="M5" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1163,21 +1169,124 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AG5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK5" t="s" s="2">
+      <c r="L6" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>73</v>
       </c>
     </row>
